--- a/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(PIVOT).xlsx
+++ b/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(PIVOT).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,41 @@
           <t>PER PAID CASE</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EMPLOYEE_ID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MANAGER_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DESIGNATION</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EMPLOYEE_STATUS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PROCESS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DEPARTMENT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -458,11 +493,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>AKSHAY KUMAR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2750</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P262</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -473,11 +543,46 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AKSHAY KUMAR</t>
+          <t>AMIT KUMAR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2750</v>
+        <v>4525</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>P170</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>P226</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -488,11 +593,46 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AMIT KUMAR</t>
+          <t>ANIKET</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4525</v>
+        <v>100</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -503,11 +643,46 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ANIKET</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -518,11 +693,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ANIL KUMAR PANDIT</t>
+          <t>ANKIT PAL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P276</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -533,11 +739,46 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ANKIT PAL</t>
+          <t>ARVIND KUMAR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>600</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P243</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -548,11 +789,46 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ARVIND KUMAR</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>600</v>
+        <v>300</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P111</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -563,12 +839,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BEENESH</t>
+          <t>BIJENDER KUMAR</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>300</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>P259</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -578,11 +889,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIJENDER KUMAR</t>
+          <t>BRAJESH KUMAR MISHRA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>300</v>
+        <v>1500</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P124</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -593,11 +939,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRAJESH KUMAR MISHRA</t>
+          <t>GARIB NATH SHARMA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1500</v>
+        <v>200</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>P271</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>O239</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>FULLERTON</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -608,11 +989,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FUNDING</t>
+          <t>GIRJESH KUMAR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2775</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -623,11 +1039,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GARIB NATH SHARMA</t>
+          <t>HIMANSHU  DABLA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P274</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -638,11 +1089,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GIRJESH KUMAR</t>
+          <t>KAMAL DIXIT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2775</v>
+        <v>100</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>P250</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>FULLERTON</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -653,11 +1139,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HIMANSHU  DABLA</t>
+          <t>LALIT</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5300</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P257</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -668,11 +1189,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KAMAL DIXIT</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>1950</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>P117</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -683,11 +1239,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LALIT</t>
+          <t>MOHD SHAHRUKH</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5300</v>
+        <v>600</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>P273</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -698,11 +1289,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MANOJ TOMAR</t>
+          <t>NITIN KUMAR KHARE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1950</v>
+        <v>2300</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P241</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -713,11 +1339,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MOHD SHAHRUKH</t>
+          <t>PRAMOD KUMAR DHOUNDIYAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>600</v>
+        <v>400</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P264</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -728,11 +1389,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NITIN KUMAR KHARE</t>
+          <t>RAJESH DUBEY</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2300</v>
+        <v>600</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>P256</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>O239</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>FULLERTON</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -743,11 +1439,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO FOS</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3100</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P255</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>O239</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>FULLERTON</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -758,11 +1489,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PRAMOD KUMAR DHOUNDIYAL</t>
+          <t>SHASHI KANT</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>400</v>
+        <v>5600</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P248</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -773,11 +1539,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RAJESH DUBEY</t>
+          <t>SOURAV KUMAR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>600</v>
+        <v>700</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P261</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -788,11 +1589,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SHAKEEL</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3100</v>
+        <v>2100</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P084</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -803,11 +1639,46 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SHASHI KANT</t>
+          <t>SUDHAKAR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5600</v>
+        <v>400</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -818,11 +1689,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SOURAV KUMAR</t>
+          <t>SUKHJEET SINGH</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>700</v>
+        <v>400</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P272</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -833,56 +1739,196 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SUBHASH CHAND</t>
+          <t>VIJAY KUMAR</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2100</v>
+        <v>800</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P270</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IDFC-TW</t>
+          <t>L&amp;T</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SUDHAKAR</t>
+          <t>AMIT KUMAR</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>400</v>
+        <v>100</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P170</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>P226</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IDFC-TW</t>
+          <t>L&amp;T</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SUKHJEET SINGH</t>
+          <t>ANIKET</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>400</v>
+        <v>3500</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IDFC-TW</t>
+          <t>L&amp;T</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VIJAY KUMAR</t>
+          <t>BRAJESH KUMAR MISHRA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>800</v>
+        <v>1600</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P124</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -893,11 +1939,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GARIB NATH SHARMA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P271</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>O239</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>FULLERTON</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -908,12 +1989,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AMIT KUMAR</t>
+          <t>GIRJESH KUMAR</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>100</v>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -923,11 +2039,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ANIKET</t>
+          <t>INDERJEET SINGH</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3500</v>
+        <v>100</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P020</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -938,11 +2089,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BRAJESH KUMAR MISHRA</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1600</v>
+        <v>2975</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P117</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -953,11 +2139,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GARIB NATH SHARMA</t>
+          <t>NITIN KUMAR KHARE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>7000</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>P241</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -968,12 +2189,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GIRJESH KUMAR</t>
+          <t>PRAMOD KUMAR DHOUNDIYAL</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>100</v>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>P264</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -983,11 +2239,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INDERJEET SINGH</t>
+          <t>SHARWAN</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>4000</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -998,11 +2289,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MANOJ TOMAR</t>
+          <t>SOURAV KUMAR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2975</v>
+        <v>3950</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>P261</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1013,11 +2339,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NITIN KUMAR KHARE</t>
+          <t>SUDHAKAR</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7000</v>
+        <v>3900</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1028,12 +2389,47 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PRAMOD KUMAR DHOUNDIYAL</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>100</v>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>P168</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1043,71 +2439,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SHARWAN</t>
+          <t>VIJAY KUMAR</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SOURAV KUMAR</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SUDHAKAR</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SUKHVINDER SINGH</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>VIJAY KUMAR</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
         <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>P270</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(PIVOT).xlsx
+++ b/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(PIVOT).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>EMPLOYEE_ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>MANAGER_ID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DESIGNATION</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>STAFF</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>EMPLOYEE_STATUS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>PROCESS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
@@ -499,37 +504,34 @@
       <c r="C2" t="n">
         <v>2750</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>P262</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -549,37 +551,38 @@
       <c r="C3" t="n">
         <v>4525</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>P170</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -599,37 +602,38 @@
       <c r="C4" t="n">
         <v>100</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>P269</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -649,37 +653,38 @@
       <c r="C5" t="n">
         <v>200</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>P138</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -699,33 +704,38 @@
       <c r="C6" t="n">
         <v>100</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>P276</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -745,37 +755,38 @@
       <c r="C7" t="n">
         <v>600</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>P243</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -795,37 +806,38 @@
       <c r="C8" t="n">
         <v>300</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>P111</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -845,37 +857,34 @@
       <c r="C9" t="n">
         <v>300</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>P259</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>INACTIVE</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -895,37 +904,38 @@
       <c r="C10" t="n">
         <v>1500</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>P124</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>L&amp;T</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -945,39 +955,40 @@
       <c r="C11" t="n">
         <v>200</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>P271</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>O239</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>FULLERTON</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -995,39 +1006,40 @@
       <c r="C12" t="n">
         <v>2775</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>P112</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -1045,37 +1057,38 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>P274</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1095,37 +1108,38 @@
       <c r="C14" t="n">
         <v>100</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>P250</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O239</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>FULLERTON</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>RECOVERY</t>
         </is>
@@ -1145,37 +1159,38 @@
       <c r="C15" t="n">
         <v>5300</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>P257</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1195,37 +1210,38 @@
       <c r="C16" t="n">
         <v>1950</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>P117</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1245,37 +1261,38 @@
       <c r="C17" t="n">
         <v>600</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>P273</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1295,37 +1312,38 @@
       <c r="C18" t="n">
         <v>2300</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>P241</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1345,37 +1363,38 @@
       <c r="C19" t="n">
         <v>400</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>P264</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1395,37 +1414,38 @@
       <c r="C20" t="n">
         <v>600</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>P256</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>O239</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>FULLERTON</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>RECOVERY</t>
         </is>
@@ -1445,39 +1465,40 @@
       <c r="C21" t="n">
         <v>3100</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>P255</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>O239</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>FULLERTON</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>FR</t>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
         </is>
       </c>
     </row>
@@ -1495,37 +1516,38 @@
       <c r="C22" t="n">
         <v>5600</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>P248</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>O254</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1545,37 +1567,38 @@
       <c r="C23" t="n">
         <v>700</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>P261</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1595,37 +1618,38 @@
       <c r="C24" t="n">
         <v>2100</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>P084</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1645,37 +1669,38 @@
       <c r="C25" t="n">
         <v>400</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>P126</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1695,37 +1720,34 @@
       <c r="C26" t="n">
         <v>400</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>P272</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>INACTIVE</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1745,37 +1767,38 @@
       <c r="C27" t="n">
         <v>800</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>P270</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1795,37 +1818,38 @@
       <c r="C28" t="n">
         <v>100</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>P170</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1845,37 +1869,38 @@
       <c r="C29" t="n">
         <v>3500</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>P269</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1895,37 +1920,38 @@
       <c r="C30" t="n">
         <v>1600</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>P124</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
+        <is>
+          <t>L&amp;T</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1945,39 +1971,40 @@
       <c r="C31" t="n">
         <v>100</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>P271</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>O239</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>FULLERTON</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -1995,39 +2022,40 @@
       <c r="C32" t="n">
         <v>100</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>P112</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -2045,37 +2073,38 @@
       <c r="C33" t="n">
         <v>100</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>P020</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2095,37 +2124,38 @@
       <c r="C34" t="n">
         <v>2975</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>P117</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2145,37 +2175,38 @@
       <c r="C35" t="n">
         <v>7000</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>P241</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -2195,37 +2226,38 @@
       <c r="C36" t="n">
         <v>100</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>P264</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2245,37 +2277,38 @@
       <c r="C37" t="n">
         <v>4000</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>P119</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2295,37 +2328,38 @@
       <c r="C38" t="n">
         <v>3950</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>P261</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2345,37 +2379,38 @@
       <c r="C39" t="n">
         <v>3900</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>P126</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2395,37 +2430,38 @@
       <c r="C40" t="n">
         <v>100</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>P168</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2445,37 +2481,38 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>P270</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
